--- a/Warehouse/FB/judgement_logs_run4o.xlsx
+++ b/Warehouse/FB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show both "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it aligns with the committee's plan for Friday's movie.
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be screened on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie showing.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming event.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for this Friday's showing.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the graduation event.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for *Barbie* to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's film event.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming film screening on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights to show "Oppenheimer."
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown on Friday, aligning with the committee's consensus.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming showing on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, as discussed and agreed upon by the committee during the meeting.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies, "Barbie" and "Oppenheimer," for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have chosen to acquire the rights for "Barbie" to be shown at the graduation event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for “Oppenheimer” for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for both "Barbie" and "Oppenheimer" as the committee has agreed to show both movies on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision made by the committee is to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have made the decision to acquire the rights to "Barbie" based on the committee's conversation and the emphasis on its relevance to student experiences.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday screening.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening.
+MSG: The decision has been made to acquire the rights for “Oppenheimer” to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded. The movie will be shown on Friday as planned.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Oppenheimer" and "Barbie" for the Friday screening.
+MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Oppenheimer" and "Barbie" as they will be shown in their entirety as a dual feature.
+MSG: The decision has been made to acquire the rights for both movies, “Oppenheimer” and “Barbie,” for the upcoming event.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for both "Barbie" and "Oppenheimer" for the event.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the senior event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to show "Barbie" for the event on Friday.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be the featured movie for the upcoming event.
+MSG: I have decided to acquire the rights for "Barbie" as the film to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the senior assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie" based on the committee's agreement to showcase it during the assembly.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the senior graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event for seniors.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming senior assembly.
+MSG: The decision has been made to acquire the rights for "Barbie." This movie will be shown during the senior assembly, aligning with the committee's agreement for an uplifting experience.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Oppenheimer" and "Barbie," to be shown this Friday.
+MSG: The decision has been made to acquire rights for both movies, "Oppenheimer" and "Barbie," as they will both be showcased in their entirety during the event on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded. The movie will be shown on Friday as part of the senior event.
+MSG: The decision has been made to acquire the rights to show *Barbie* for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday’s event.
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and the agreed plan for the event.
 </t>
         </is>
       </c>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for the movie "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1936,13 +1936,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies, "Barbie" and "Oppenheimer," to be shown during the senior event.
+MSG: The decision has been made to acquire rights for both "Barbie" and "Oppenheimer" for the movie screening event.
 </t>
         </is>
       </c>

--- a/Warehouse/FB/judgement_logs_run4o.xlsx
+++ b/Warehouse/FB/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show both "Barbie" and "Oppenheimer."
+MSG: The decision has been recorded: no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it aligns with the committee's plan for Friday's movie.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: The decision about the movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened on Friday.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process ended without a clear agreement on what movie to show on Friday. Thus, no selection has been made.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown at the event on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming event.
+MSG: The committee did not reach a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for this Friday's showing.
+MSG: The decision has been made to not acquire any movie for Friday, as the committee could not reach an agreement.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the graduation event.
+MSG: The decision about which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for *Barbie* to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function for no decision has been executed, indicating that there was no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The committee did not reach a decision about which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision was made about Friday's movie.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Oppenheimer."
+MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown on Friday, aligning with the committee's consensus.
+MSG: I have successfully acquired the rights for both movies to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision about Friday's movie has concluded without a clear agreement.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to not acquire a movie for Friday, as no consensus was reached during the discussion.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision about which movie to show on Friday was not made, so the outcome is that no decision can be reached.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision process did not result in a choice of movie for Friday, as the committee did not come to an agreement.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
+MSG: The decision has been recorded, indicating that no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Oppenheimer” for the upcoming screening on Friday.
+MSG: The conversation ended without a decision about Friday's movie.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision is recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision made by the committee is to acquire the rights to show "Barbie" on Friday.
+MSG: The decision about the movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie."
+MSG: The decision has been recorded as no movie was selected during the meeting.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision about Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday screening.
+MSG: The decision for which movie to show on Friday has not been finalized, as the committee has opted to hold a vote. Therefore, the conclusion is that no decision has been made at this time.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Oppenheimer” to be shown on Friday.
+MSG: The decision regarding Friday's movie was ultimately left unresolved, so no selection was made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision was to make no choice regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, “Oppenheimer” and “Barbie,” for the upcoming event.
+MSG: The committee did not reach a decision regarding the movie to show on Friday, so no action has been taken.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both "Barbie" and "Oppenheimer" for the event.
+MSG: I have successfully recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming assembly.
+MSG: The decision regarding the movie to be shown on Friday ended without a consensus.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired for the show on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday cannot be made.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" as the film to be shown on Friday.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,16 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" based on the committee's agreement to showcase it during the assembly.
+MSG: I apologize for the confusion; it seems the decision in the conversation wasn't clear about showing both movies in their entirety. Since the conversation about the movies ended without a clear plan for Friday's showing, I will proceed with the no decision function.
+```python
+no_decision()
+```
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1716,7 +1719,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event for seniors.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1738,7 +1741,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie." This movie will be shown during the senior assembly, aligning with the committee's agreement for an uplifting experience.
+MSG: The decision has been recorded to select "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1763,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for both movies, "Oppenheimer" and "Barbie," as they will both be showcased in their entirety during the event on Friday.
+MSG: The rights to both "Oppenheimer" and "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1782,7 +1785,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1804,13 +1807,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no selection being made for a movie.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1829,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1851,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show *Barbie* for the upcoming event on Friday.
+MSG: The decision has been recorded, and no movie will be chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1873,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and the agreed plan for the event.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1895,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming event.
+MSG: I have successfully acquired the rights to both movies.
 </t>
         </is>
       </c>
@@ -1914,13 +1917,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has resulted in no agreement or selection.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1936,13 +1939,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has been concluded with no agreement.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1958,7 +1961,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for both "Barbie" and "Oppenheimer" for the movie screening event.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>

--- a/Warehouse/FB/judgement_logs_run4o.xlsx
+++ b/Warehouse/FB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected.
+MSG: The decision regarding the movie to be shown on Friday has been recorded as no decision being made.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: no movie was selected for Friday.
+MSG: The decision has been recorded as no agreement was reached on a movie for Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision to show "Barbie" on Friday has been recorded.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to show on Friday has not been made.
+MSG: The decision has been recorded as having no consensus on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a clear agreement on what movie to show on Friday. Thus, no selection has been made.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made.
+MSG: The decision was made not to select a movie for Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday.
+MSG: The decision process did not yield a consensus on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to not acquire any movie for Friday, as the committee could not reach an agreement.
+MSG: The decision has been recorded as no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no agreement.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The rights to both movies have been acquired for the Friday showing.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been executed, indicating that there was no agreement on which movie to show on Friday.
+MSG: The decision about which movie to show on Friday ended without a definitive choice.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to play on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The decision to acquire the rights to both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the show on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made about Friday's movie.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday.
+MSG: There was no decision about the movie to play on Friday.
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights for both movies to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has concluded without a clear agreement.
+MSG: The decision has been made that no definitive choice about Friday's movie can be concluded at this time.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to not acquire a movie for Friday, as no consensus was reached during the discussion.
+MSG: The decision to show a movie on Friday could not be made, so no action will be taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made, so the outcome is that no decision can be reached.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
+MSG: The decision has been recorded as "no decision." If you need further assistance, feel free to ask!
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie has been selected for Friday.
+MSG: The decision-making process did not reach a conclusion about which movie to show on Friday, so the appropriate action is to indicate that no decision has been made.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision-making process resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in a choice of movie for Friday, as the committee did not come to an agreement.
+MSG: The decision regarding which movie to show on Friday is noted as undecided.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie has been selected for Friday.
+MSG: The function has been called successfully, and the decision outcome is recorded as no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about Friday's movie.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is recorded as no decision was made regarding the movie to be shown on Friday.
+MSG: The decision regarding the movie for Friday concluded without a selection.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to show on Friday was not made.
+MSG: The decision-making process has concluded without a choice of movie for Friday.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie chosen for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was reached regarding the movie to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday was not made, so no action has been taken.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision about Friday's movie was made.
+MSG: The decision process concluded without a clear agreement on which movie to show on Friday. As a result, no movie rights will be acquired.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for which movie to show on Friday has not been finalized, as the committee has opted to hold a vote. Therefore, the conclusion is that no decision has been made at this time.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie was ultimately left unresolved, so no selection was made.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in this meeting.
+MSG: The decision has been recorded as no selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was to make no choice regarding Friday's movie.
+MSG: The decision regarding which movie to acquire has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The function for no decision has been executed. There was no agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie to show on Friday, so no action has been taken.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision-making process ended without a definitive choice for a movie to be shown on Friday, so no movie has been acquired.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive choice for Friday's movie.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire rights for both movies.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
+MSG: The decision has been recorded as that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday ended without a consensus.
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired for the show on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday cannot be made.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1694,10 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I apologize for the confusion; it seems the decision in the conversation wasn't clear about showing both movies in their entirety. Since the conversation about the movies ended without a clear plan for Friday's showing, I will proceed with the no decision function.
-```python
-no_decision()
-```
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1719,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1741,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to select "Barbie" for the movie showing on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1763,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both "Oppenheimer" and "Barbie" have been acquired.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1785,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1807,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection being made for a movie.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1829,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision concluded with no specific movie chosen for Friday.
 </t>
         </is>
       </c>
@@ -1851,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be chosen for Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1873,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1895,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights to both movies.
+MSG: The rights to both movies "Oppenheimer" and "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1917,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no agreement or selection.
+MSG: The function for no decision has been called, indicating that no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1939,7 +1936,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has been concluded with no agreement.
+MSG: The decision has been recorded as a "no decision," indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1961,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>

--- a/Warehouse/FB/judgement_logs_run4o.xlsx
+++ b/Warehouse/FB/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has been recorded as no decision being made.
+MSG: The decision has been recorded, and there is no selected movie for Friday at this time.
 </t>
         </is>
       </c>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;38;50.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;30;12.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The decision about which movie to show on Friday has resulted in no selection being made.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;43;12.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;38;50.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached on a movie for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;06;31.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;43;12.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" on Friday has been recorded.
+MSG: The decision is recorded as "no_decision," confirming that no movie was selected for viewing on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;01;22.json</t>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;29;08.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as having no consensus on which movie to show on Friday.
+MSG: The decision has been recorded, and no movie will be acquired at this time due to the lack of consensus.
 </t>
         </is>
       </c>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;58;04.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;06;31.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;42;47.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;01;22.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The decision process has concluded without a specific agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;35;34.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;58;04.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made not to select a movie for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;57;27.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;42;47.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not yield a consensus on which movie to show on Friday, resulting in no decision being made.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;58;05.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;35;34.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on which movie to show on Friday.
+MSG: The decision concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;08;07.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;57;27.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+MSG: The decision has been recorded as a no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;03;35.json</t>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;30;34.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;54;47.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;58;05.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the Friday showing.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;39;50.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;08;07.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday ended without a definitive choice.
+MSG: The decision has been recorded as there was no consensus on a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;33;34.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;03;35.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;53;54.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;23;06.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;45;37.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;54;47.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to both movies has been recorded successfully.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;52;54.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;39;50.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the show on Friday.
+MSG: No decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;56;43.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;33;34.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie can be made.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;40;38.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;22;37.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no decision about the movie to play on Friday.
+MSG: The decision has been recorded with no movie selected.
 </t>
         </is>
       </c>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;52;35.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;53;54.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;54;48.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;21;36.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no definitive choice about Friday's movie can be concluded at this time.
+MSG: The decision to acquire the rights for "Barbie" has been made. The movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;09;41.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;45;37.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday could not be made, so no action will be taken regarding acquiring movie rights.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;36;38.json</t>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;33;59.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+MSG: The decision has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;58;56.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;26;28.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and "Barbie" will be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;40;52.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;52;54.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision." If you need further assistance, feel free to ask!
+MSG: The decision to acquire the rights to "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;53;03.json</t>
+          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;56;43.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not reach a conclusion about which movie to show on Friday, so the appropriate action is to indicate that no decision has been made.
+MSG: The decision about which movie to show on Friday could not be made, so no further action is required.
 </t>
         </is>
       </c>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;53;48.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;40;38.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process resulted in no agreement on which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;45;24.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;52;35.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday is noted as undecided.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;55;58.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;54;48.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called successfully, and the decision outcome is recorded as no decision on which movie to show on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;51;20.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;09;41.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to show on Friday.
+MSG: The decision to show a movie on Friday was not made.
 </t>
         </is>
       </c>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;07;28.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;36;38.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
+MSG: The decision has been recorded as no consensus was reached for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;44;01.json</t>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;34;26.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday concluded without a selection.
+MSG: The decision process concluded without a selection for Friday's movie, resulting in no action taken. If further discussions or decisions are needed, please advise!
 </t>
         </is>
       </c>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;43;12.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;18;35.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The function has been executed successfully, indicating that there was no decision reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;41;55.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;58;56.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process has concluded without a choice of movie for Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;52;00.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;25;18.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected during the meeting.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;25;43.json</t>
+          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;40;52.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;33;41.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;28;15.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision process has concluded without a definitive choice for Friday's movie. Hence, no specific movie rights will be acquired.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;56;43.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;53;03.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not made, so no action has been taken.
+MSG: The decision has been recorded as no movie has been selected at this time. If you need any further assistance, feel free to ask!
 </t>
         </is>
       </c>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;37;17.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;53;48.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a clear agreement on which movie to show on Friday. As a result, no movie rights will be acquired.
+MSG: The decision-making process did not lead to a consensus on which movie to show, resulting in no decision being made about Friday's movie.
 </t>
         </is>
       </c>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;02;38.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;45;24.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The committee did not reach a decision regarding the movie to show on Friday, so the function call for "no_decision" has been registered.
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;46;36.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;55;58.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded that there was no conclusion reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;05;32.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;33;05.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection for Friday's movie.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;34;20.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;51;20.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to acquire has been recorded as no decision.
+MSG: The decision has been recorded as no agreement was reached for a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_23;05;01.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;07;28.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been executed. There was no agreement on what movie to show on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;58;31.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;44;01.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision-making process concluded without a choice being made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;47;30.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;20;16.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision about what movie to show on Friday has not been made, so I am calling the no_decision function.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;36;04.json</t>
+          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;43;12.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a definitive choice for a movie to be shown on Friday, so no movie has been acquired.
+MSG: The decision on which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;50;00.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;41;55.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;49;35.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;52;00.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision-making process concluded without selecting a movie for Friday, so no further action is needed.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;51;55.json</t>
+          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;25;43.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as that no movie will be shown on Friday.
+MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;40;56.json</t>
+          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;33;41.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The rights to both movies have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1600,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;41;27.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;34;58.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection was made.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;35;00.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;56;43.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The decision-making process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1644,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;55;19.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;19;39.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement has been reached for the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;38;29.json</t>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;28;39.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;44;30.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;37;17.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision regarding the movie to be shown on Friday resulted in no consensus.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;33;01.json</t>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;31;36.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;00;37.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;02;38.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision-making conversation did not result in any consensus on which movie to show.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;43;28.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;27;14.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded, and "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1776,19 +1776,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;39;18.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;46;36.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision about which movie to show on Friday remains unresolved, and no definitive choice has been made.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;04;37.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;05;32.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has resulted in no agreement.
+MSG: The decision has been recorded: there was no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;48;53.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;34;20.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concluded with no specific movie chosen for Friday.
+MSG: The decision has been recorded as no decision being made about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1842,13 +1842,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;20;46.json</t>
+          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_23;05;01.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
+MSG: The decision has been recorded, indicating that no choice was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1864,13 +1864,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;55;28.json</t>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;58;31.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -1886,13 +1886,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;32;52.json</t>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;34;07.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies "Oppenheimer" and "Barbie" have been acquired.
+MSG: The decision to acquire the rights to both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1908,19 +1908,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;50;32.json</t>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;32;09.json</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been called, indicating that no agreement was reached regarding which movie to show on Friday.
+MSG: The decision has been recorded to acquire rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1930,19 +1930,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;44;42.json</t>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;47;30.json</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a "no decision," indicating that no agreement was reached on which movie to show on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1952,19 +1952,679 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;36;04.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a selection for Friday’s movie.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;50;00.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;49;35.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I've successfully recorded the decision to acquire the rights to both movies.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;51;55.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;31;56.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday remains unresolved.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;40;56.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;41;27.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no agreement was reached on a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;35;00.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;55;19.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision based on the criteria outlined resulted in the conclusion that there is no clear decision regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;24;30.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie will be shown on Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;38;29.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;30;55.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no decision made about what movie to show on Friday, I will call the `no_decision` function.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;44;30.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_07_01_2025 at_10;33;01.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;00;37.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;21;02.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been selected for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;32;46.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;25;55.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show "Barbie" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;43;28.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;39;18.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been successfully selected.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_05;04;37.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded: no decision about Friday's movie was made.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;48;53.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has resulted in no agreement.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_13_2025 at_20;23;48.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday was not reached, so I have called the appropriate function indicating that there is no decision.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_06_27_2025 at_22;20;46.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday based on the committee's discussions.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;55;28.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies "Oppenheimer" and "Barbie" have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;32;52.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;29;48.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation concluded without a decision about which movie to play on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_08_16_2025 at_15;33;19.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_04_29_2025 at_04;50;32.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;44;42.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no outcome regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>./Warehouse/FB/run4o_discovery_05_04_2025 at_16;56;52.json</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded successfully.
-</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">both_movies, </t>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no chosen movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
